--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F808DF6-F016-4ABC-81B0-6C93A00FD27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CFB296-C9B8-4A4F-95C6-29C415416C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="665">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -6902,6 +6902,9 @@
     <xf numFmtId="164" fontId="64" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6952,9 +6955,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -8644,12 +8644,12 @@
       <c r="Z15" s="277"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="467" t="s">
+      <c r="A16" s="468" t="s">
         <v>579</v>
       </c>
-      <c r="B16" s="467"/>
-      <c r="C16" s="467"/>
-      <c r="D16" s="467"/>
+      <c r="B16" s="468"/>
+      <c r="C16" s="468"/>
+      <c r="D16" s="468"/>
       <c r="E16" s="278"/>
       <c r="F16" s="278"/>
       <c r="G16" s="279"/>
@@ -8733,11 +8733,11 @@
       <c r="A19" s="283" t="s">
         <v>580</v>
       </c>
-      <c r="B19" s="466" t="s">
+      <c r="B19" s="467" t="s">
         <v>595</v>
       </c>
-      <c r="C19" s="466"/>
-      <c r="D19" s="466"/>
+      <c r="C19" s="467"/>
+      <c r="D19" s="467"/>
       <c r="E19" s="284"/>
       <c r="F19" s="284"/>
       <c r="G19" s="285"/>
@@ -8765,11 +8765,11 @@
       <c r="A20" s="283" t="s">
         <v>581</v>
       </c>
-      <c r="B20" s="466" t="s">
+      <c r="B20" s="467" t="s">
         <v>594</v>
       </c>
-      <c r="C20" s="466"/>
-      <c r="D20" s="466"/>
+      <c r="C20" s="467"/>
+      <c r="D20" s="467"/>
       <c r="E20" s="284"/>
       <c r="F20" s="284"/>
       <c r="G20" s="285"/>
@@ -8857,11 +8857,11 @@
       <c r="A23" s="283" t="s">
         <v>583</v>
       </c>
-      <c r="B23" s="466" t="s">
+      <c r="B23" s="467" t="s">
         <v>592</v>
       </c>
-      <c r="C23" s="466"/>
-      <c r="D23" s="466"/>
+      <c r="C23" s="467"/>
+      <c r="D23" s="467"/>
       <c r="E23" s="277"/>
       <c r="F23" s="277"/>
       <c r="G23" s="277"/>
@@ -8949,11 +8949,11 @@
       <c r="A26" s="283" t="s">
         <v>584</v>
       </c>
-      <c r="B26" s="466" t="s">
+      <c r="B26" s="467" t="s">
         <v>660</v>
       </c>
-      <c r="C26" s="466"/>
-      <c r="D26" s="466"/>
+      <c r="C26" s="467"/>
+      <c r="D26" s="467"/>
       <c r="E26" s="277"/>
       <c r="F26" s="277"/>
       <c r="G26" s="277"/>
@@ -8979,11 +8979,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="283"/>
-      <c r="B27" s="466" t="s">
+      <c r="B27" s="467" t="s">
         <v>661</v>
       </c>
-      <c r="C27" s="466"/>
-      <c r="D27" s="466"/>
+      <c r="C27" s="467"/>
+      <c r="D27" s="467"/>
       <c r="E27" s="277"/>
       <c r="F27" s="277"/>
       <c r="G27" s="277"/>
@@ -9071,11 +9071,11 @@
       <c r="A30" s="283" t="s">
         <v>586</v>
       </c>
-      <c r="B30" s="468" t="s">
+      <c r="B30" s="469" t="s">
         <v>587</v>
       </c>
-      <c r="C30" s="466"/>
-      <c r="D30" s="466"/>
+      <c r="C30" s="467"/>
+      <c r="D30" s="467"/>
       <c r="E30" s="288"/>
       <c r="F30" s="288"/>
       <c r="G30" s="277"/>
@@ -9103,11 +9103,11 @@
       <c r="A31" s="283" t="s">
         <v>588</v>
       </c>
-      <c r="B31" s="466" t="s">
+      <c r="B31" s="467" t="s">
         <v>589</v>
       </c>
-      <c r="C31" s="466"/>
-      <c r="D31" s="466"/>
+      <c r="C31" s="467"/>
+      <c r="D31" s="467"/>
       <c r="E31" s="288"/>
       <c r="F31" s="288"/>
       <c r="G31" s="277"/>
@@ -12130,7 +12130,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K30" s="474" t="s">
+      <c r="K30" s="475" t="s">
         <v>114</v>
       </c>
       <c r="N30" s="130" t="s">
@@ -12186,7 +12186,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K31" s="475"/>
+      <c r="K31" s="476"/>
       <c r="N31" s="152"/>
       <c r="O31" s="149"/>
       <c r="P31" s="149"/>
@@ -12229,7 +12229,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K32" s="475"/>
+      <c r="K32" s="476"/>
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="2:23">
@@ -12269,7 +12269,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K33" s="475"/>
+      <c r="K33" s="476"/>
       <c r="M33" s="22"/>
     </row>
     <row r="34" spans="2:23">
@@ -12309,7 +12309,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K34" s="475"/>
+      <c r="K34" s="476"/>
       <c r="M34" s="22"/>
     </row>
     <row r="35" spans="2:23">
@@ -12349,7 +12349,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K35" s="475"/>
+      <c r="K35" s="476"/>
       <c r="M35" s="22"/>
     </row>
     <row r="36" spans="2:23">
@@ -12389,7 +12389,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K36" s="475"/>
+      <c r="K36" s="476"/>
       <c r="M36" s="22"/>
     </row>
     <row r="37" spans="2:23">
@@ -12429,7 +12429,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K37" s="476"/>
+      <c r="K37" s="477"/>
       <c r="M37" s="22"/>
     </row>
     <row r="38" spans="2:23">
@@ -14204,11 +14204,11 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="477" t="s">
+      <c r="F9" s="478" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="477"/>
-      <c r="H9" s="477"/>
+      <c r="G9" s="478"/>
+      <c r="H9" s="478"/>
       <c r="I9" s="192" t="s">
         <v>222</v>
       </c>
@@ -14714,7 +14714,7 @@
       <c r="F5" s="50">
         <v>10</v>
       </c>
-      <c r="G5" s="478" t="s">
+      <c r="G5" s="479" t="s">
         <v>142</v>
       </c>
       <c r="R5" s="23"/>
@@ -14739,7 +14739,7 @@
       <c r="F6" s="50">
         <v>10</v>
       </c>
-      <c r="G6" s="479"/>
+      <c r="G6" s="480"/>
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" ht="15">
@@ -14762,7 +14762,7 @@
       <c r="F7" s="50">
         <v>10</v>
       </c>
-      <c r="G7" s="479"/>
+      <c r="G7" s="480"/>
       <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" ht="15">
@@ -14785,7 +14785,7 @@
       <c r="F8" s="50">
         <v>10</v>
       </c>
-      <c r="G8" s="479"/>
+      <c r="G8" s="480"/>
       <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" ht="15">
@@ -14808,7 +14808,7 @@
       <c r="F9" s="50">
         <v>10</v>
       </c>
-      <c r="G9" s="479"/>
+      <c r="G9" s="480"/>
       <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" ht="15">
@@ -14831,7 +14831,7 @@
       <c r="F10" s="50">
         <v>10</v>
       </c>
-      <c r="G10" s="479"/>
+      <c r="G10" s="480"/>
       <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" ht="15">
@@ -14854,7 +14854,7 @@
       <c r="F11" s="50">
         <v>10</v>
       </c>
-      <c r="G11" s="479"/>
+      <c r="G11" s="480"/>
       <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" ht="15">
@@ -14877,7 +14877,7 @@
       <c r="F12" s="50">
         <v>10</v>
       </c>
-      <c r="G12" s="479"/>
+      <c r="G12" s="480"/>
       <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" ht="15">
@@ -14900,7 +14900,7 @@
       <c r="F13" s="50">
         <v>10</v>
       </c>
-      <c r="G13" s="479"/>
+      <c r="G13" s="480"/>
       <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" ht="15">
@@ -14923,7 +14923,7 @@
       <c r="F14" s="51">
         <v>10</v>
       </c>
-      <c r="G14" s="479"/>
+      <c r="G14" s="480"/>
       <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" ht="15">
@@ -14946,7 +14946,7 @@
       <c r="F15" s="50">
         <v>10</v>
       </c>
-      <c r="G15" s="479"/>
+      <c r="G15" s="480"/>
       <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" ht="15">
@@ -14969,7 +14969,7 @@
       <c r="F16" s="50">
         <v>10</v>
       </c>
-      <c r="G16" s="479"/>
+      <c r="G16" s="480"/>
       <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" ht="15">
@@ -14992,7 +14992,7 @@
       <c r="F17" s="50">
         <v>10</v>
       </c>
-      <c r="G17" s="479"/>
+      <c r="G17" s="480"/>
       <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" ht="15">
@@ -15015,7 +15015,7 @@
       <c r="F18" s="50">
         <v>10</v>
       </c>
-      <c r="G18" s="479"/>
+      <c r="G18" s="480"/>
       <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" ht="15">
@@ -15038,7 +15038,7 @@
       <c r="F19" s="50">
         <v>10</v>
       </c>
-      <c r="G19" s="479"/>
+      <c r="G19" s="480"/>
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" ht="15">
@@ -15061,7 +15061,7 @@
       <c r="F20" s="50">
         <v>10</v>
       </c>
-      <c r="G20" s="479"/>
+      <c r="G20" s="480"/>
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18">
@@ -15084,7 +15084,7 @@
       <c r="F21" s="50">
         <v>10</v>
       </c>
-      <c r="G21" s="479"/>
+      <c r="G21" s="480"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="21" t="str">
@@ -15106,7 +15106,7 @@
       <c r="F22" s="50">
         <v>10</v>
       </c>
-      <c r="G22" s="479"/>
+      <c r="G22" s="480"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="21" t="str">
@@ -15128,7 +15128,7 @@
       <c r="F23" s="50">
         <v>10</v>
       </c>
-      <c r="G23" s="479"/>
+      <c r="G23" s="480"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="45" t="str">
@@ -15150,7 +15150,7 @@
       <c r="F24" s="51">
         <v>10</v>
       </c>
-      <c r="G24" s="479"/>
+      <c r="G24" s="480"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="21" t="str">
@@ -15172,7 +15172,7 @@
       <c r="F25" s="50">
         <v>10</v>
       </c>
-      <c r="G25" s="479"/>
+      <c r="G25" s="480"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="21" t="str">
@@ -15194,7 +15194,7 @@
       <c r="F26" s="50">
         <v>10</v>
       </c>
-      <c r="G26" s="479"/>
+      <c r="G26" s="480"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="21" t="str">
@@ -15216,7 +15216,7 @@
       <c r="F27" s="50">
         <v>10</v>
       </c>
-      <c r="G27" s="479"/>
+      <c r="G27" s="480"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="21" t="str">
@@ -15238,7 +15238,7 @@
       <c r="F28" s="50">
         <v>10</v>
       </c>
-      <c r="G28" s="479"/>
+      <c r="G28" s="480"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="21" t="str">
@@ -15260,7 +15260,7 @@
       <c r="F29" s="50">
         <v>10</v>
       </c>
-      <c r="G29" s="479"/>
+      <c r="G29" s="480"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="21" t="str">
@@ -15282,7 +15282,7 @@
       <c r="F30" s="50">
         <v>10</v>
       </c>
-      <c r="G30" s="479"/>
+      <c r="G30" s="480"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="21" t="str">
@@ -15304,7 +15304,7 @@
       <c r="F31" s="50">
         <v>10</v>
       </c>
-      <c r="G31" s="479"/>
+      <c r="G31" s="480"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="21" t="str">
@@ -15326,7 +15326,7 @@
       <c r="F32" s="50">
         <v>10</v>
       </c>
-      <c r="G32" s="479"/>
+      <c r="G32" s="480"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="21" t="str">
@@ -15348,7 +15348,7 @@
       <c r="F33" s="50">
         <v>10</v>
       </c>
-      <c r="G33" s="479"/>
+      <c r="G33" s="480"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="45" t="str">
@@ -15370,7 +15370,7 @@
       <c r="F34" s="51">
         <v>10</v>
       </c>
-      <c r="G34" s="480"/>
+      <c r="G34" s="481"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="21"/>
@@ -16471,21 +16471,21 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="477" t="s">
+      <c r="G7" s="478" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="477"/>
-      <c r="I7" s="477"/>
-      <c r="J7" s="477"/>
-      <c r="K7" s="477"/>
+      <c r="H7" s="478"/>
+      <c r="I7" s="478"/>
+      <c r="J7" s="478"/>
+      <c r="K7" s="478"/>
       <c r="L7" s="193" t="s">
         <v>67</v>
       </c>
       <c r="M7" s="192"/>
-      <c r="N7" s="481" t="s">
+      <c r="N7" s="482" t="s">
         <v>220</v>
       </c>
-      <c r="O7" s="481"/>
+      <c r="O7" s="482"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -17118,17 +17118,20 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6297AC73-3506-47A0-A87E-4DEE2B4424AC}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="23"/>
     <col min="2" max="2" width="18.85546875" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="23"/>
+    <col min="3" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -17260,7 +17263,7 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" s="23" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="G18" s="23">
         <v>1</v>
@@ -17275,8 +17278,8 @@
       </c>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="23" t="s">
-        <v>633</v>
+      <c r="F19" t="s">
+        <v>653</v>
       </c>
       <c r="G19" s="23">
         <v>1</v>
@@ -17291,12 +17294,6 @@
       </c>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="G20" s="23">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="23" t="s">
@@ -17307,12 +17304,6 @@
       </c>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" s="23" t="s">
-        <v>635</v>
-      </c>
-      <c r="G21" s="23">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="23" t="s">
@@ -17323,12 +17314,6 @@
       </c>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="G22" s="23">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="23" t="s">
@@ -17339,12 +17324,6 @@
       </c>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="23" t="s">
-        <v>637</v>
-      </c>
-      <c r="G23" s="23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="23" t="s">
@@ -17355,12 +17334,6 @@
       </c>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" s="23" t="s">
-        <v>638</v>
-      </c>
-      <c r="G24" s="23">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
@@ -17371,20 +17344,6 @@
       </c>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="23" t="s">
-        <v>655</v>
-      </c>
-      <c r="G25" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="F26" t="s">
-        <v>662</v>
-      </c>
-      <c r="G26" s="23">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17428,10 +17387,10 @@
       <c r="J1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="482" t="s">
+      <c r="P1" s="483" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="482"/>
+      <c r="Q1" s="483"/>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" s="23"/>
@@ -32495,20 +32454,20 @@
       <c r="D24" s="246"/>
       <c r="E24" s="246"/>
       <c r="F24" s="247"/>
-      <c r="G24" s="469" t="s">
+      <c r="G24" s="470" t="s">
         <v>527</v>
       </c>
-      <c r="H24" s="469"/>
-      <c r="I24" s="469"/>
-      <c r="J24" s="470"/>
-      <c r="K24" s="471" t="s">
+      <c r="H24" s="470"/>
+      <c r="I24" s="470"/>
+      <c r="J24" s="471"/>
+      <c r="K24" s="472" t="s">
         <v>528</v>
       </c>
-      <c r="L24" s="472"/>
-      <c r="M24" s="473" t="s">
+      <c r="L24" s="473"/>
+      <c r="M24" s="474" t="s">
         <v>529</v>
       </c>
-      <c r="N24" s="472"/>
+      <c r="N24" s="473"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
@@ -33151,20 +33110,20 @@
       <c r="D42" s="246"/>
       <c r="E42" s="246"/>
       <c r="F42" s="247"/>
-      <c r="G42" s="469" t="s">
+      <c r="G42" s="470" t="s">
         <v>527</v>
       </c>
-      <c r="H42" s="469"/>
-      <c r="I42" s="469"/>
-      <c r="J42" s="470"/>
-      <c r="K42" s="471" t="s">
+      <c r="H42" s="470"/>
+      <c r="I42" s="470"/>
+      <c r="J42" s="471"/>
+      <c r="K42" s="472" t="s">
         <v>528</v>
       </c>
-      <c r="L42" s="472"/>
-      <c r="M42" s="473" t="s">
+      <c r="L42" s="473"/>
+      <c r="M42" s="474" t="s">
         <v>555</v>
       </c>
-      <c r="N42" s="472"/>
+      <c r="N42" s="473"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
@@ -33981,7 +33940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A665F926-DECD-4DB2-B495-3F9BFC1DFD4C}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -34115,10 +34074,10 @@
       <c r="G10" s="166" t="s">
         <v>631</v>
       </c>
-      <c r="H10" s="483" t="s">
+      <c r="H10" s="466" t="s">
         <v>664</v>
       </c>
-      <c r="I10" s="483" t="s">
+      <c r="I10" s="466" t="s">
         <v>208</v>
       </c>
     </row>
@@ -34211,21 +34170,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -34371,31 +34315,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34411,4 +34346,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>